--- a/Tabla_ET2000.xlsx
+++ b/Tabla_ET2000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB9BD4F-2DA9-4F22-A03B-F5A775BFC468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AF15B7-1885-43ED-ACC1-1B3071ACF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Column-0</t>
   </si>
@@ -85,25 +85,103 @@
     <t>Total factura:</t>
   </si>
   <si>
-    <t>ZTS-205-556-HM-Y41</t>
-  </si>
-  <si>
-    <t>NEUMATICOS</t>
-  </si>
-  <si>
-    <t>65,57 EUR</t>
-  </si>
-  <si>
-    <t>1,44 EUR</t>
-  </si>
-  <si>
-    <t>67,01 EUR</t>
-  </si>
-  <si>
-    <t>14,07 EUR</t>
-  </si>
-  <si>
-    <t>81,08 EUR</t>
+    <t>11,75 EUR</t>
+  </si>
+  <si>
+    <t>BOMBA</t>
+  </si>
+  <si>
+    <t>ROTULO</t>
+  </si>
+  <si>
+    <t>03L-253-016-TX</t>
+  </si>
+  <si>
+    <t>TURBOCOMPR</t>
+  </si>
+  <si>
+    <t>899,64 EUR</t>
+  </si>
+  <si>
+    <t>8W6-809-347</t>
+  </si>
+  <si>
+    <t>CHAPA</t>
+  </si>
+  <si>
+    <t>2GM-853-687-A -2ZZ</t>
+  </si>
+  <si>
+    <t>19,50 EUR</t>
+  </si>
+  <si>
+    <t>107-905-855-CF</t>
+  </si>
+  <si>
+    <t>CILINDRO</t>
+  </si>
+  <si>
+    <t>126,62 EUR</t>
+  </si>
+  <si>
+    <t>6R0-955-681</t>
+  </si>
+  <si>
+    <t>60,22 EUR</t>
+  </si>
+  <si>
+    <t>5G0-955-965</t>
+  </si>
+  <si>
+    <t>57,06 EUR</t>
+  </si>
+  <si>
+    <t>8W0-833-405-A</t>
+  </si>
+  <si>
+    <t>BISAGRA</t>
+  </si>
+  <si>
+    <t>9,99 EUR</t>
+  </si>
+  <si>
+    <t>8W0-833-403-A</t>
+  </si>
+  <si>
+    <t>03L-906-088-DN</t>
+  </si>
+  <si>
+    <t>SENSOR</t>
+  </si>
+  <si>
+    <t>112,88 EUR</t>
+  </si>
+  <si>
+    <t>03L-906-088-DM</t>
+  </si>
+  <si>
+    <t>106,92 EUR</t>
+  </si>
+  <si>
+    <t>8E0-959-845-B</t>
+  </si>
+  <si>
+    <t>GUARDAPOLV</t>
+  </si>
+  <si>
+    <t>13,39 EUR</t>
+  </si>
+  <si>
+    <t>1.427,96 EUR</t>
+  </si>
+  <si>
+    <t>-0,00 EUR</t>
+  </si>
+  <si>
+    <t>299,87 EUR</t>
+  </si>
+  <si>
+    <t>1.727,83 EUR</t>
   </si>
 </sst>
 </file>
@@ -422,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB4AD9-8F37-4DBC-A048-5846FFDA8CF4}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
@@ -481,13 +559,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>6595413</v>
+        <v>6594050</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -496,129 +574,365 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>6595285</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D8">
+        <v>6595444</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>6535851</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>6601893</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>6601893</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>6602033</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>6602033</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>6599702</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>6599702</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>6601893</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F27" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F28" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
